--- a/confidence_comparative.xlsx
+++ b/confidence_comparative.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74327274-3DCD-489B-AFAC-4BFD6E61CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE0DBAB-D5EE-4B22-9AC9-60897D05FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada" sheetId="1" r:id="rId1"/>
     <sheet name="Razvan" sheetId="2" r:id="rId2"/>
+    <sheet name="Oscar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="384">
   <si>
     <t>Tooth</t>
   </si>
@@ -858,6 +859,321 @@
   </si>
   <si>
     <t>C2|0, C3|4</t>
+  </si>
+  <si>
+    <t>B1|0|0.8, A1|0.417|0.2</t>
+  </si>
+  <si>
+    <t>B1|0, A1|0.48</t>
+  </si>
+  <si>
+    <t>B1|0, A1|3</t>
+  </si>
+  <si>
+    <t>A1|1.0|1.0</t>
+  </si>
+  <si>
+    <t>A1|1.0</t>
+  </si>
+  <si>
+    <t>A1|5</t>
+  </si>
+  <si>
+    <t>A1|0.306|1.0</t>
+  </si>
+  <si>
+    <t>A1|0.31</t>
+  </si>
+  <si>
+    <t>A1|2</t>
+  </si>
+  <si>
+    <t>A2|0|1.0</t>
+  </si>
+  <si>
+    <t>A2|0</t>
+  </si>
+  <si>
+    <t>A2|0.666|1.0</t>
+  </si>
+  <si>
+    <t>A2|0.67</t>
+  </si>
+  <si>
+    <t>A3|0|1.0</t>
+  </si>
+  <si>
+    <t>A3|0</t>
+  </si>
+  <si>
+    <t>A3|0.83|1.0</t>
+  </si>
+  <si>
+    <t>A3|0.83</t>
+  </si>
+  <si>
+    <t>B4|0.435|0.7, A3_5|0|0.3</t>
+  </si>
+  <si>
+    <t>B4|0.62, A3_5|0</t>
+  </si>
+  <si>
+    <t>B4|4, A3_5|0</t>
+  </si>
+  <si>
+    <t>B4|0.245|0.6, A3_5|0.421|0.4</t>
+  </si>
+  <si>
+    <t>B4|0.41, A3_5|0.95</t>
+  </si>
+  <si>
+    <t>B4|3, A3_5|5</t>
+  </si>
+  <si>
+    <t>B4|0.193|0.5, A3_5|0.272|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.39, A3_5|0.54</t>
+  </si>
+  <si>
+    <t>B4|2, A3_5|3</t>
+  </si>
+  <si>
+    <t>A4|0.279|1.0</t>
+  </si>
+  <si>
+    <t>A4|0.28</t>
+  </si>
+  <si>
+    <t>A4|2</t>
+  </si>
+  <si>
+    <t>A4|0.711|1.0</t>
+  </si>
+  <si>
+    <t>A4|0.71</t>
+  </si>
+  <si>
+    <t>A4|0.254|1.0</t>
+  </si>
+  <si>
+    <t>A4|0.25</t>
+  </si>
+  <si>
+    <t>B1|0.301|1.0</t>
+  </si>
+  <si>
+    <t>B1|0.3</t>
+  </si>
+  <si>
+    <t>B1|2</t>
+  </si>
+  <si>
+    <t>B1|0.504|1.0</t>
+  </si>
+  <si>
+    <t>B1|0.5</t>
+  </si>
+  <si>
+    <t>B1|3</t>
+  </si>
+  <si>
+    <t>B2|0.255|0.9, C1|0|0.1</t>
+  </si>
+  <si>
+    <t>B2|0.28, C1|0</t>
+  </si>
+  <si>
+    <t>B2|2, C1|0</t>
+  </si>
+  <si>
+    <t>B2|0.934|1.0</t>
+  </si>
+  <si>
+    <t>B2|0.93</t>
+  </si>
+  <si>
+    <t>B2|5</t>
+  </si>
+  <si>
+    <t>B2|0|1.0</t>
+  </si>
+  <si>
+    <t>B2|0</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.6, B3|0.167|0.4</t>
+  </si>
+  <si>
+    <t>A3_5|0, B3|0.42</t>
+  </si>
+  <si>
+    <t>A3_5|0, B3|3</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.6, B3|0.982|0.4</t>
+  </si>
+  <si>
+    <t>A3_5|0, B3|0.41</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.5, B3|0.231|0.5</t>
+  </si>
+  <si>
+    <t>A3_5|0, B3|0.46</t>
+  </si>
+  <si>
+    <t>B4|0.643|0.7, A3_5|0|0.3</t>
+  </si>
+  <si>
+    <t>B4|0.92, A3_5|0</t>
+  </si>
+  <si>
+    <t>B4|5, A3_5|0</t>
+  </si>
+  <si>
+    <t>B4|0.964|0.8, A3_5|0|0.2</t>
+  </si>
+  <si>
+    <t>B4|0.83, A3_5|0</t>
+  </si>
+  <si>
+    <t>B4|0.513|0.5, A3_5|0|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.97, A3_5|0</t>
+  </si>
+  <si>
+    <t>C1|0.3|1.0</t>
+  </si>
+  <si>
+    <t>C1|0.3</t>
+  </si>
+  <si>
+    <t>C1|2</t>
+  </si>
+  <si>
+    <t>C1|0.967|1.0</t>
+  </si>
+  <si>
+    <t>C1|0.97</t>
+  </si>
+  <si>
+    <t>C1|5</t>
+  </si>
+  <si>
+    <t>C1|0.268|1.0</t>
+  </si>
+  <si>
+    <t>C1|0.27</t>
+  </si>
+  <si>
+    <t>C2|0.19|0.8, D3|0|0.2</t>
+  </si>
+  <si>
+    <t>C2|0.24, D3|0</t>
+  </si>
+  <si>
+    <t>C2|2, D3|0</t>
+  </si>
+  <si>
+    <t>C2|0.954|0.8, D3|0|0.2</t>
+  </si>
+  <si>
+    <t>C2|0.84, D3|0</t>
+  </si>
+  <si>
+    <t>C2|0.501|0.5, D3|0|0.5</t>
+  </si>
+  <si>
+    <t>C2|1.0, D3|0</t>
+  </si>
+  <si>
+    <t>C3|0.353|1.0</t>
+  </si>
+  <si>
+    <t>C3|0.35</t>
+  </si>
+  <si>
+    <t>C3|2</t>
+  </si>
+  <si>
+    <t>C3|0.53|1.0</t>
+  </si>
+  <si>
+    <t>C3|0.53</t>
+  </si>
+  <si>
+    <t>C4|0.906|1.0</t>
+  </si>
+  <si>
+    <t>C4|0.91</t>
+  </si>
+  <si>
+    <t>C4|0.989|1.0</t>
+  </si>
+  <si>
+    <t>C4|0.99</t>
+  </si>
+  <si>
+    <t>D2|0|0.8, C1|0|0.2</t>
+  </si>
+  <si>
+    <t>D2|0, C1|0</t>
+  </si>
+  <si>
+    <t>D2|0.719|1.0</t>
+  </si>
+  <si>
+    <t>D2|0.72</t>
+  </si>
+  <si>
+    <t>D2|0.44|1.0</t>
+  </si>
+  <si>
+    <t>D2|0.44</t>
+  </si>
+  <si>
+    <t>D2|3</t>
+  </si>
+  <si>
+    <t>D3|0.327|0.8, C2|0|0.2</t>
+  </si>
+  <si>
+    <t>D3|0.41, C2|0</t>
+  </si>
+  <si>
+    <t>D3|3, C2|0</t>
+  </si>
+  <si>
+    <t>D3|0.606|0.9, C2|0.297|0.1</t>
+  </si>
+  <si>
+    <t>D3|0.67, C2|0.34</t>
+  </si>
+  <si>
+    <t>D3|4, C2|2</t>
+  </si>
+  <si>
+    <t>D3|0.408|0.8, C2|0.214|0.2</t>
+  </si>
+  <si>
+    <t>D3|0.51, C2|0.93</t>
+  </si>
+  <si>
+    <t>D3|3, C2|5</t>
+  </si>
+  <si>
+    <t>C2|0|1.0</t>
+  </si>
+  <si>
+    <t>C2|0</t>
+  </si>
+  <si>
+    <t>C2|0|0.9, C1|0|0.1</t>
+  </si>
+  <si>
+    <t>C2|0, C1|0</t>
   </si>
 </sst>
 </file>
@@ -943,32 +1259,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,26 +1572,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" customWidth="1"/>
-    <col min="8" max="8" width="43.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,535 +1614,518 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1858,26 +2134,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="36.1796875" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="44.1796875" customWidth="1"/>
+    <col min="8" max="8" width="42.81640625" customWidth="1"/>
+    <col min="9" max="9" width="35.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,533 +2180,1081 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>192</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="7" max="7" width="32.1796875" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" t="s">
+        <v>311</v>
+      </c>
       <c r="J6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="H7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" t="s">
+        <v>332</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>223</v>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I10" t="s">
+        <v>339</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>233</v>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>353</v>
+      </c>
+      <c r="I12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="H13" t="s">
+        <v>358</v>
+      </c>
+      <c r="I13" t="s">
+        <v>359</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>249</v>
+      <c r="B14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" t="s">
+        <v>361</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>251</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>254</v>
+      <c r="H14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" t="s">
+        <v>363</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>262</v>
+      <c r="B15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" t="s">
+        <v>369</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>264</v>
+      <c r="B16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" t="s">
+        <v>372</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" t="s">
+        <v>377</v>
+      </c>
+      <c r="I16" t="s">
+        <v>378</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>274</v>
+      <c r="B17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" t="s">
+        <v>381</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="H17" t="s">
+        <v>382</v>
+      </c>
+      <c r="I17" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/confidence_comparative.xlsx
+++ b/confidence_comparative.xlsx
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE0DBAB-D5EE-4B22-9AC9-60897D05FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249D54D-342F-4C89-A66C-E7B83695D115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada" sheetId="1" r:id="rId1"/>
     <sheet name="Razvan" sheetId="2" r:id="rId2"/>
     <sheet name="Oscar" sheetId="3" r:id="rId3"/>
+    <sheet name="Antonio" sheetId="4" r:id="rId4"/>
+    <sheet name="Inma" sheetId="5" r:id="rId5"/>
+    <sheet name="Javi" sheetId="6" r:id="rId6"/>
+    <sheet name="Cris_L" sheetId="7" r:id="rId7"/>
+    <sheet name="Carmen" sheetId="8" r:id="rId8"/>
+    <sheet name="Virginia" sheetId="9" r:id="rId9"/>
+    <sheet name="Esther" sheetId="10" r:id="rId10"/>
+    <sheet name="Cris_Be" sheetId="11" r:id="rId11"/>
+    <sheet name="Cris_V" sheetId="12" r:id="rId12"/>
+    <sheet name="Marta" sheetId="13" r:id="rId13"/>
+    <sheet name="Eva" sheetId="14" r:id="rId14"/>
+    <sheet name="Carmen_S" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1061">
   <si>
     <t>Tooth</t>
   </si>
@@ -1174,6 +1186,2037 @@
   </si>
   <si>
     <t>C2|0, C1|0</t>
+  </si>
+  <si>
+    <t>C1|0.15|0.7</t>
+  </si>
+  <si>
+    <t>C1|0.21</t>
+  </si>
+  <si>
+    <t>B1|0|0.7</t>
+  </si>
+  <si>
+    <t>B1|0</t>
+  </si>
+  <si>
+    <t>B2|0|0.7</t>
+  </si>
+  <si>
+    <t>A2|0|0.6</t>
+  </si>
+  <si>
+    <t>A3|0|0.8</t>
+  </si>
+  <si>
+    <t>C3|0.285|0.8, D3|0|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.36, D3|0</t>
+  </si>
+  <si>
+    <t>C3|2, D3|0</t>
+  </si>
+  <si>
+    <t>A3|0.83|0.7</t>
+  </si>
+  <si>
+    <t>A3|0.84</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.8</t>
+  </si>
+  <si>
+    <t>A3_5|0.421|1.0</t>
+  </si>
+  <si>
+    <t>A3_5|0.42</t>
+  </si>
+  <si>
+    <t>A3_5|3</t>
+  </si>
+  <si>
+    <t>A3_5|0.272|0.6, A4|0|0.6</t>
+  </si>
+  <si>
+    <t>A3_5|0.45, A4|0</t>
+  </si>
+  <si>
+    <t>A3_5|3, A4|0</t>
+  </si>
+  <si>
+    <t>C4|0.546|0.5, C2|0|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.92, C2|0</t>
+  </si>
+  <si>
+    <t>C4|5, C2|0</t>
+  </si>
+  <si>
+    <t>C4|0|0.9</t>
+  </si>
+  <si>
+    <t>C4|0</t>
+  </si>
+  <si>
+    <t>D4|0|0.6</t>
+  </si>
+  <si>
+    <t>D4|0</t>
+  </si>
+  <si>
+    <t>B2|0.255|0.5</t>
+  </si>
+  <si>
+    <t>B2|0.51</t>
+  </si>
+  <si>
+    <t>B2|0.934|0.8</t>
+  </si>
+  <si>
+    <t>B2|0.86</t>
+  </si>
+  <si>
+    <t>B2|0|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.378|0.6, B3|0.167|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.63, B3|0.33</t>
+  </si>
+  <si>
+    <t>B4|4, B3|2</t>
+  </si>
+  <si>
+    <t>B3|0.982|0.9, B4|0|0.6</t>
+  </si>
+  <si>
+    <t>B3|0.92, B4|0</t>
+  </si>
+  <si>
+    <t>B3|5, B4|0</t>
+  </si>
+  <si>
+    <t>B4|0|0.7, B3|0.231|0.6</t>
+  </si>
+  <si>
+    <t>B4|0, B3|0.39</t>
+  </si>
+  <si>
+    <t>B4|0, B3|2</t>
+  </si>
+  <si>
+    <t>B3|0|0.5, B4|0.643|0.4</t>
+  </si>
+  <si>
+    <t>B3|0, B4|0.62</t>
+  </si>
+  <si>
+    <t>B4|0.964|0.7</t>
+  </si>
+  <si>
+    <t>B4|0.73</t>
+  </si>
+  <si>
+    <t>B4|4</t>
+  </si>
+  <si>
+    <t>B4|0.513|0.7</t>
+  </si>
+  <si>
+    <t>C2|0|0.6, C1|0.3|0.5</t>
+  </si>
+  <si>
+    <t>C2|0, C1|0.6</t>
+  </si>
+  <si>
+    <t>C2|0, C1|4</t>
+  </si>
+  <si>
+    <t>C1|0.967|0.8</t>
+  </si>
+  <si>
+    <t>C1|0.83</t>
+  </si>
+  <si>
+    <t>C1|0.268|0.8</t>
+  </si>
+  <si>
+    <t>C1|0.34</t>
+  </si>
+  <si>
+    <t>C2|0.19|0.6</t>
+  </si>
+  <si>
+    <t>C2|0.32</t>
+  </si>
+  <si>
+    <t>C2|2</t>
+  </si>
+  <si>
+    <t>C2|0.954|0.8</t>
+  </si>
+  <si>
+    <t>C2|0.84</t>
+  </si>
+  <si>
+    <t>C3|0.135|0.5, C2|0.501|0.4, C1|0|0.4</t>
+  </si>
+  <si>
+    <t>C3|0.27, C2|0.8, C1|0</t>
+  </si>
+  <si>
+    <t>C3|2, C2|5, C1|0</t>
+  </si>
+  <si>
+    <t>C3|0.353|0.8</t>
+  </si>
+  <si>
+    <t>C3|0.44</t>
+  </si>
+  <si>
+    <t>C3|0.587|0.9</t>
+  </si>
+  <si>
+    <t>C3|0.65</t>
+  </si>
+  <si>
+    <t>C3|0.53|0.7</t>
+  </si>
+  <si>
+    <t>C3|0.76</t>
+  </si>
+  <si>
+    <t>D4|0|0.9</t>
+  </si>
+  <si>
+    <t>D4|0|0.8</t>
+  </si>
+  <si>
+    <t>C4|0.319|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.64</t>
+  </si>
+  <si>
+    <t>C1|0.279|0.7</t>
+  </si>
+  <si>
+    <t>C1|0.4</t>
+  </si>
+  <si>
+    <t>C1|3</t>
+  </si>
+  <si>
+    <t>D2|0.44|0.5</t>
+  </si>
+  <si>
+    <t>D2|0.88</t>
+  </si>
+  <si>
+    <t>D2|5</t>
+  </si>
+  <si>
+    <t>C3|0.207|0.7, D2|0|0.4</t>
+  </si>
+  <si>
+    <t>C3|0.3, D2|0</t>
+  </si>
+  <si>
+    <t>C3|2, D2|0</t>
+  </si>
+  <si>
+    <t>C2|0.297|0.9</t>
+  </si>
+  <si>
+    <t>C2|0.33</t>
+  </si>
+  <si>
+    <t>D4|0.19|0.9</t>
+  </si>
+  <si>
+    <t>D4|0.21</t>
+  </si>
+  <si>
+    <t>D4|2</t>
+  </si>
+  <si>
+    <t>D4|0.903|0.9</t>
+  </si>
+  <si>
+    <t>D4|1.0</t>
+  </si>
+  <si>
+    <t>D4|5</t>
+  </si>
+  <si>
+    <t>D4|0.18|0.5, D3|0|0.5</t>
+  </si>
+  <si>
+    <t>D4|0.36, D3|0</t>
+  </si>
+  <si>
+    <t>D4|2, D3|0</t>
+  </si>
+  <si>
+    <t>B1|0|0.5</t>
+  </si>
+  <si>
+    <t>B1|0|1.0</t>
+  </si>
+  <si>
+    <t>A3|0.179|1.0</t>
+  </si>
+  <si>
+    <t>A3|0.18</t>
+  </si>
+  <si>
+    <t>A3|1</t>
+  </si>
+  <si>
+    <t>C1|0|1.0</t>
+  </si>
+  <si>
+    <t>C1|0</t>
+  </si>
+  <si>
+    <t>D2|0|1.0</t>
+  </si>
+  <si>
+    <t>A3_5|0|1.0</t>
+  </si>
+  <si>
+    <t>C2|0.282|1.0</t>
+  </si>
+  <si>
+    <t>C2|0.28</t>
+  </si>
+  <si>
+    <t>B4|0.435|1.0</t>
+  </si>
+  <si>
+    <t>B4|0.43</t>
+  </si>
+  <si>
+    <t>B4|3</t>
+  </si>
+  <si>
+    <t>B4|0.245|1.0</t>
+  </si>
+  <si>
+    <t>B4|0.24</t>
+  </si>
+  <si>
+    <t>B4|2</t>
+  </si>
+  <si>
+    <t>B4|0.193|1.0</t>
+  </si>
+  <si>
+    <t>B4|0.19</t>
+  </si>
+  <si>
+    <t>B4|1</t>
+  </si>
+  <si>
+    <t>C4|0.546|1.0</t>
+  </si>
+  <si>
+    <t>C4|0.55</t>
+  </si>
+  <si>
+    <t>C4|0.718|1.0</t>
+  </si>
+  <si>
+    <t>C4|0.72</t>
+  </si>
+  <si>
+    <t>C1|0.291|1.0</t>
+  </si>
+  <si>
+    <t>C1|0.29</t>
+  </si>
+  <si>
+    <t>B3|0.167|1.0</t>
+  </si>
+  <si>
+    <t>B3|0.17</t>
+  </si>
+  <si>
+    <t>B3|1</t>
+  </si>
+  <si>
+    <t>B3|0.982|1.0</t>
+  </si>
+  <si>
+    <t>B3|0.98</t>
+  </si>
+  <si>
+    <t>B3|5</t>
+  </si>
+  <si>
+    <t>B3|0.231|1.0</t>
+  </si>
+  <si>
+    <t>B3|0.23</t>
+  </si>
+  <si>
+    <t>B3|2</t>
+  </si>
+  <si>
+    <t>B4|0.643|1.0</t>
+  </si>
+  <si>
+    <t>B4|0.64</t>
+  </si>
+  <si>
+    <t>B4|0.964|1.0</t>
+  </si>
+  <si>
+    <t>B4|0.96</t>
+  </si>
+  <si>
+    <t>B4|0.513|1.0</t>
+  </si>
+  <si>
+    <t>B4|0.51</t>
+  </si>
+  <si>
+    <t>C2|0.19|1.0</t>
+  </si>
+  <si>
+    <t>C2|0.19</t>
+  </si>
+  <si>
+    <t>C2|1</t>
+  </si>
+  <si>
+    <t>C2|0.501|1.0</t>
+  </si>
+  <si>
+    <t>C2|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.537|1.0</t>
+  </si>
+  <si>
+    <t>C4|0.54</t>
+  </si>
+  <si>
+    <t>D4|0.377|1.0</t>
+  </si>
+  <si>
+    <t>D4|0.38</t>
+  </si>
+  <si>
+    <t>C2|0.297|1.0</t>
+  </si>
+  <si>
+    <t>C2|0.3</t>
+  </si>
+  <si>
+    <t>D3|0.408|1.0</t>
+  </si>
+  <si>
+    <t>D3|0.41</t>
+  </si>
+  <si>
+    <t>D3|0|1.0</t>
+  </si>
+  <si>
+    <t>C3|0|1.0</t>
+  </si>
+  <si>
+    <t>C3|0</t>
+  </si>
+  <si>
+    <t>B1|0|0.5, C1|0.15|0.2, D2|0.334|0.1</t>
+  </si>
+  <si>
+    <t>B1|0, C1|0.75, D2|0.3</t>
+  </si>
+  <si>
+    <t>B1|0, C1|4, D2|2</t>
+  </si>
+  <si>
+    <t>B1|0|0.5, C1|0|0.2, D2|0.475|0.1</t>
+  </si>
+  <si>
+    <t>B1|0, C1|0, D2|0.21</t>
+  </si>
+  <si>
+    <t>B1|0, C1|0, D2|2</t>
+  </si>
+  <si>
+    <t>C2|0|0.4, D3|0|0.3</t>
+  </si>
+  <si>
+    <t>C2|0, D3|0</t>
+  </si>
+  <si>
+    <t>D2|0|0.4, B2|0.4|0.4</t>
+  </si>
+  <si>
+    <t>D2|0, B2|1.0</t>
+  </si>
+  <si>
+    <t>D2|0, B2|5</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.5, A3|0|0.2</t>
+  </si>
+  <si>
+    <t>A3_5|0, A3|0</t>
+  </si>
+  <si>
+    <t>A3|0.83|0.9, A2|0|0.1</t>
+  </si>
+  <si>
+    <t>A3|0.92, A2|0</t>
+  </si>
+  <si>
+    <t>B4|0.435|0.4, D4|0|0.2</t>
+  </si>
+  <si>
+    <t>B4|0.92, D4|0</t>
+  </si>
+  <si>
+    <t>B4|5, D4|0</t>
+  </si>
+  <si>
+    <t>A3_5|0.421|0.8, B3|0.322|0.2</t>
+  </si>
+  <si>
+    <t>A3_5|0.53, B3|0.62</t>
+  </si>
+  <si>
+    <t>A3_5|3, B3|4</t>
+  </si>
+  <si>
+    <t>C3|0|0.4, D4|0|0.2</t>
+  </si>
+  <si>
+    <t>C3|0, D4|0</t>
+  </si>
+  <si>
+    <t>C4|0.546|0.6, A4|0.279|0.1</t>
+  </si>
+  <si>
+    <t>C4|0.91, A4|0.36</t>
+  </si>
+  <si>
+    <t>C4|5, A4|2</t>
+  </si>
+  <si>
+    <t>C4|0.718|0.4, A4|0.254|0.1</t>
+  </si>
+  <si>
+    <t>C4|0.56, A4|0.39</t>
+  </si>
+  <si>
+    <t>C4|3, A4|2</t>
+  </si>
+  <si>
+    <t>B1|0.301|0.6</t>
+  </si>
+  <si>
+    <t>B1|0.504|0.6</t>
+  </si>
+  <si>
+    <t>B1|0.84</t>
+  </si>
+  <si>
+    <t>C1|0|0.4</t>
+  </si>
+  <si>
+    <t>B2|0.934|0.9</t>
+  </si>
+  <si>
+    <t>B2|0.96</t>
+  </si>
+  <si>
+    <t>C1|0.291|0.6</t>
+  </si>
+  <si>
+    <t>C1|0.48</t>
+  </si>
+  <si>
+    <t>A3|0|0.3, B3|0.167|0.3</t>
+  </si>
+  <si>
+    <t>A3|0, B3|0.56</t>
+  </si>
+  <si>
+    <t>A3|0, B3|3</t>
+  </si>
+  <si>
+    <t>B4|0|0.9, B3|0.982|0.1</t>
+  </si>
+  <si>
+    <t>B4|0, B3|0.1</t>
+  </si>
+  <si>
+    <t>B4|0, B3|1</t>
+  </si>
+  <si>
+    <t>D4|0|0.4</t>
+  </si>
+  <si>
+    <t>D4|0|0.4, B4|0.643|0.3</t>
+  </si>
+  <si>
+    <t>D4|0, B4|0.47</t>
+  </si>
+  <si>
+    <t>D4|0, B4|3</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.8, B3|0|0.2</t>
+  </si>
+  <si>
+    <t>A3_5|0, B3|0</t>
+  </si>
+  <si>
+    <t>D4|0|0.4, B4|0.513|0.3</t>
+  </si>
+  <si>
+    <t>D4|0, B4|0.58</t>
+  </si>
+  <si>
+    <t>D2|0|0.5, D3|0.429|0.2</t>
+  </si>
+  <si>
+    <t>D2|0, D3|0.47</t>
+  </si>
+  <si>
+    <t>D2|0, D3|3</t>
+  </si>
+  <si>
+    <t>C1|0.967|0.9, D2|0|0.1</t>
+  </si>
+  <si>
+    <t>C1|0.93, D2|0</t>
+  </si>
+  <si>
+    <t>D2|0.225|0.5, D3|0.304|0.2</t>
+  </si>
+  <si>
+    <t>D2|0.45, D3|0.66</t>
+  </si>
+  <si>
+    <t>D2|3, D3|4</t>
+  </si>
+  <si>
+    <t>D3|0|0.6, C3|0.324|0.3</t>
+  </si>
+  <si>
+    <t>D3|0, C3|0.93</t>
+  </si>
+  <si>
+    <t>D3|0, C3|5</t>
+  </si>
+  <si>
+    <t>C2|0.501|0.5, D3|0|0.3</t>
+  </si>
+  <si>
+    <t>C2|0|0.4, D3|0|0.4</t>
+  </si>
+  <si>
+    <t>C4|0.906|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.989|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.51</t>
+  </si>
+  <si>
+    <t>D3|0.251|0.4, D4|0|0.2</t>
+  </si>
+  <si>
+    <t>D3|0.63, D4|0</t>
+  </si>
+  <si>
+    <t>D3|4, D4|0</t>
+  </si>
+  <si>
+    <t>D2|0.719|0.8, C1|0.279|0.2</t>
+  </si>
+  <si>
+    <t>D2|0.9, C1|0.72</t>
+  </si>
+  <si>
+    <t>D2|5, C1|4</t>
+  </si>
+  <si>
+    <t>C1|0|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.207|0.4, D3|0.327|0.3</t>
+  </si>
+  <si>
+    <t>C3|0.52, D3|0.92</t>
+  </si>
+  <si>
+    <t>C3|3, D3|5</t>
+  </si>
+  <si>
+    <t>D3|0.606|1.0</t>
+  </si>
+  <si>
+    <t>D3|0.61</t>
+  </si>
+  <si>
+    <t>D3|4</t>
+  </si>
+  <si>
+    <t>C2|0.214|0.4, D3|0.408|0.3</t>
+  </si>
+  <si>
+    <t>C2|0.53, D3|0.74</t>
+  </si>
+  <si>
+    <t>C2|3, D3|4</t>
+  </si>
+  <si>
+    <t>D3|0|0.5, C2|0|0.2</t>
+  </si>
+  <si>
+    <t>D3|0, C2|0</t>
+  </si>
+  <si>
+    <t>C3|0|0.9</t>
+  </si>
+  <si>
+    <t>C2|0|0.5, D3|0|0.2</t>
+  </si>
+  <si>
+    <t>A1|0.417|0.5</t>
+  </si>
+  <si>
+    <t>A1|0.83</t>
+  </si>
+  <si>
+    <t>A1|1.0|0.6</t>
+  </si>
+  <si>
+    <t>A1|0.6</t>
+  </si>
+  <si>
+    <t>A1|4</t>
+  </si>
+  <si>
+    <t>A1|0.306|0.5</t>
+  </si>
+  <si>
+    <t>A1|0.61</t>
+  </si>
+  <si>
+    <t>A2|0.666|0.6</t>
+  </si>
+  <si>
+    <t>A2|0.9</t>
+  </si>
+  <si>
+    <t>A2|5</t>
+  </si>
+  <si>
+    <t>A3|0|0.6</t>
+  </si>
+  <si>
+    <t>C3|0|0.6</t>
+  </si>
+  <si>
+    <t>B3|0.322|0.6</t>
+  </si>
+  <si>
+    <t>B3|0.54</t>
+  </si>
+  <si>
+    <t>B3|3</t>
+  </si>
+  <si>
+    <t>B3|0|0.6</t>
+  </si>
+  <si>
+    <t>B3|0</t>
+  </si>
+  <si>
+    <t>A4|0.279|0.6</t>
+  </si>
+  <si>
+    <t>A4|0.47</t>
+  </si>
+  <si>
+    <t>A4|3</t>
+  </si>
+  <si>
+    <t>A4|0.254|0.5</t>
+  </si>
+  <si>
+    <t>A4|0.51</t>
+  </si>
+  <si>
+    <t>B1|0.301|0.7</t>
+  </si>
+  <si>
+    <t>B1|0.43</t>
+  </si>
+  <si>
+    <t>B1|0.992|0.7</t>
+  </si>
+  <si>
+    <t>B1|0.71</t>
+  </si>
+  <si>
+    <t>B1|0.504|0.7</t>
+  </si>
+  <si>
+    <t>B1|0.72</t>
+  </si>
+  <si>
+    <t>B2|0.934|0.6</t>
+  </si>
+  <si>
+    <t>B2|0.64</t>
+  </si>
+  <si>
+    <t>B2|4</t>
+  </si>
+  <si>
+    <t>C3|0|0.8</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.7</t>
+  </si>
+  <si>
+    <t>C3|0.199|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.4</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.7, B4|0.643|0.3</t>
+  </si>
+  <si>
+    <t>A3_5|0, B4|0.47</t>
+  </si>
+  <si>
+    <t>A3_5|0, B4|3</t>
+  </si>
+  <si>
+    <t>B3|0|0.5</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.4</t>
+  </si>
+  <si>
+    <t>C1|0.3|0.6</t>
+  </si>
+  <si>
+    <t>C1|0.5</t>
+  </si>
+  <si>
+    <t>C1|0.967|0.7</t>
+  </si>
+  <si>
+    <t>C1|0.72</t>
+  </si>
+  <si>
+    <t>C1|0.268|0.5</t>
+  </si>
+  <si>
+    <t>C1|0.54</t>
+  </si>
+  <si>
+    <t>C3|0.324|0.5</t>
+  </si>
+  <si>
+    <t>D2|0|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.353|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.71</t>
+  </si>
+  <si>
+    <t>A3|0|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.957|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.52</t>
+  </si>
+  <si>
+    <t>D2|0.719|0.5</t>
+  </si>
+  <si>
+    <t>D2|0.7</t>
+  </si>
+  <si>
+    <t>D2|0.44|0.6</t>
+  </si>
+  <si>
+    <t>D2|0.73</t>
+  </si>
+  <si>
+    <t>D3|0.327|0.5, D2|0|0.5</t>
+  </si>
+  <si>
+    <t>D3|0.65, D2|0</t>
+  </si>
+  <si>
+    <t>D3|4, D2|0</t>
+  </si>
+  <si>
+    <t>D3|0.606|0.5, D2|0|0.5</t>
+  </si>
+  <si>
+    <t>D3|0.83, D2|0</t>
+  </si>
+  <si>
+    <t>D3|5, D2|0</t>
+  </si>
+  <si>
+    <t>D2|0|0.7</t>
+  </si>
+  <si>
+    <t>D4|0.19|0.5</t>
+  </si>
+  <si>
+    <t>D2|0.334|0.5</t>
+  </si>
+  <si>
+    <t>D2|0.67</t>
+  </si>
+  <si>
+    <t>B1|0|0.8</t>
+  </si>
+  <si>
+    <t>D2|0.475|0.5</t>
+  </si>
+  <si>
+    <t>D2|0.95</t>
+  </si>
+  <si>
+    <t>D3|0|0.7</t>
+  </si>
+  <si>
+    <t>D3|0|0.8</t>
+  </si>
+  <si>
+    <t>D4|0|0.5</t>
+  </si>
+  <si>
+    <t>D3|0|0.4</t>
+  </si>
+  <si>
+    <t>C3|0|0.7</t>
+  </si>
+  <si>
+    <t>D3|0|0.6</t>
+  </si>
+  <si>
+    <t>C3|0|0.4</t>
+  </si>
+  <si>
+    <t>C3|0|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.546|0.6</t>
+  </si>
+  <si>
+    <t>C4|0|0.6</t>
+  </si>
+  <si>
+    <t>C4|0.718|0.7</t>
+  </si>
+  <si>
+    <t>C4|0.97</t>
+  </si>
+  <si>
+    <t>D2|0.54|0.7</t>
+  </si>
+  <si>
+    <t>D2|0.77</t>
+  </si>
+  <si>
+    <t>B2|0.255|0.6</t>
+  </si>
+  <si>
+    <t>B2|0.43</t>
+  </si>
+  <si>
+    <t>C1|0|0.9</t>
+  </si>
+  <si>
+    <t>B3|0.982|0.7</t>
+  </si>
+  <si>
+    <t>B3|0.71</t>
+  </si>
+  <si>
+    <t>B3|4</t>
+  </si>
+  <si>
+    <t>D4|0|0.7</t>
+  </si>
+  <si>
+    <t>C1|0.967|0.5</t>
+  </si>
+  <si>
+    <t>C1|0.52</t>
+  </si>
+  <si>
+    <t>C1|0.268|0.4</t>
+  </si>
+  <si>
+    <t>C1|0.67</t>
+  </si>
+  <si>
+    <t>C2|0.19|0.4</t>
+  </si>
+  <si>
+    <t>C2|0.47</t>
+  </si>
+  <si>
+    <t>C2|0.954|0.7</t>
+  </si>
+  <si>
+    <t>C2|0.73</t>
+  </si>
+  <si>
+    <t>C2|0.501|0.5</t>
+  </si>
+  <si>
+    <t>C2|1.0</t>
+  </si>
+  <si>
+    <t>C3|0.353|0.4</t>
+  </si>
+  <si>
+    <t>C3|0.88</t>
+  </si>
+  <si>
+    <t>C3|0.587|0.7</t>
+  </si>
+  <si>
+    <t>C3|0.84</t>
+  </si>
+  <si>
+    <t>C4|0.957|0.9</t>
+  </si>
+  <si>
+    <t>C4|0.94</t>
+  </si>
+  <si>
+    <t>D3|0.251|0.7</t>
+  </si>
+  <si>
+    <t>D3|0.36</t>
+  </si>
+  <si>
+    <t>D3|2</t>
+  </si>
+  <si>
+    <t>C1|0|0.6</t>
+  </si>
+  <si>
+    <t>D3|0.327|0.4</t>
+  </si>
+  <si>
+    <t>D3|0.82</t>
+  </si>
+  <si>
+    <t>D3|5</t>
+  </si>
+  <si>
+    <t>D3|0.606|0.8</t>
+  </si>
+  <si>
+    <t>D3|0.76</t>
+  </si>
+  <si>
+    <t>D3|0.408|0.7</t>
+  </si>
+  <si>
+    <t>D3|0.58</t>
+  </si>
+  <si>
+    <t>D4|0.19|0.8</t>
+  </si>
+  <si>
+    <t>D4|0.24</t>
+  </si>
+  <si>
+    <t>D4|0.903|0.5</t>
+  </si>
+  <si>
+    <t>D4|0.55</t>
+  </si>
+  <si>
+    <t>D4|3</t>
+  </si>
+  <si>
+    <t>D4|0.18|0.5</t>
+  </si>
+  <si>
+    <t>D4|0.36</t>
+  </si>
+  <si>
+    <t>D2|0.334|0.6</t>
+  </si>
+  <si>
+    <t>D2|0.56</t>
+  </si>
+  <si>
+    <t>D2|0.475|0.6</t>
+  </si>
+  <si>
+    <t>D2|0.79</t>
+  </si>
+  <si>
+    <t>A3|0.179|0.6</t>
+  </si>
+  <si>
+    <t>A3|0.3</t>
+  </si>
+  <si>
+    <t>A3|2</t>
+  </si>
+  <si>
+    <t>B3|0|0.9</t>
+  </si>
+  <si>
+    <t>B3|0|0.4</t>
+  </si>
+  <si>
+    <t>D4|0|1.0</t>
+  </si>
+  <si>
+    <t>C4|0.546|0.4</t>
+  </si>
+  <si>
+    <t>C4|0.73</t>
+  </si>
+  <si>
+    <t>C4|0|1.0</t>
+  </si>
+  <si>
+    <t>B1|0.504|0.3</t>
+  </si>
+  <si>
+    <t>B1|0.6</t>
+  </si>
+  <si>
+    <t>A2|0|0.7</t>
+  </si>
+  <si>
+    <t>B4|0.643|0.7</t>
+  </si>
+  <si>
+    <t>B4|0.92</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.5</t>
+  </si>
+  <si>
+    <t>B4|0|0.7</t>
+  </si>
+  <si>
+    <t>B4|0</t>
+  </si>
+  <si>
+    <t>B4|0|0.5</t>
+  </si>
+  <si>
+    <t>C2|0.19|0.5</t>
+  </si>
+  <si>
+    <t>C2|0.38</t>
+  </si>
+  <si>
+    <t>C3|0.353|0.7</t>
+  </si>
+  <si>
+    <t>C3|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.587|0.8</t>
+  </si>
+  <si>
+    <t>C3|0.73</t>
+  </si>
+  <si>
+    <t>C2|0|0.6</t>
+  </si>
+  <si>
+    <t>D2|0.44|0.4</t>
+  </si>
+  <si>
+    <t>D2|0.91</t>
+  </si>
+  <si>
+    <t>D3|0.327|0.8</t>
+  </si>
+  <si>
+    <t>D3|0.408|0.5</t>
+  </si>
+  <si>
+    <t>C2|0|0.5</t>
+  </si>
+  <si>
+    <t>A1|1.0|0.5</t>
+  </si>
+  <si>
+    <t>A1|0.5</t>
+  </si>
+  <si>
+    <t>A1|3</t>
+  </si>
+  <si>
+    <t>A2|0|0.5</t>
+  </si>
+  <si>
+    <t>A2|0.666|0.5</t>
+  </si>
+  <si>
+    <t>A2|0.75</t>
+  </si>
+  <si>
+    <t>A3|0.83|0.5</t>
+  </si>
+  <si>
+    <t>A3|0.6</t>
+  </si>
+  <si>
+    <t>A3|4</t>
+  </si>
+  <si>
+    <t>B3|0.322|0.5</t>
+  </si>
+  <si>
+    <t>B3|0.64</t>
+  </si>
+  <si>
+    <t>A4|0.279|0.5</t>
+  </si>
+  <si>
+    <t>A4|0.56</t>
+  </si>
+  <si>
+    <t>A4|0.711|0.5</t>
+  </si>
+  <si>
+    <t>A4|0.7</t>
+  </si>
+  <si>
+    <t>B1|0.301|0.5</t>
+  </si>
+  <si>
+    <t>B1|0.992|0.5</t>
+  </si>
+  <si>
+    <t>B1|0.504|0.5</t>
+  </si>
+  <si>
+    <t>B2|0.934|0.5</t>
+  </si>
+  <si>
+    <t>B2|0.54</t>
+  </si>
+  <si>
+    <t>B4|0.643|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.78</t>
+  </si>
+  <si>
+    <t>B4|0.964|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.52</t>
+  </si>
+  <si>
+    <t>B4|0.513|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.97</t>
+  </si>
+  <si>
+    <t>C1|0.3|0.5</t>
+  </si>
+  <si>
+    <t>C1|0.6</t>
+  </si>
+  <si>
+    <t>C2|0.954|0.5</t>
+  </si>
+  <si>
+    <t>C2|0.52</t>
+  </si>
+  <si>
+    <t>C3|0.587|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.85</t>
+  </si>
+  <si>
+    <t>C4|0.957|0.7</t>
+  </si>
+  <si>
+    <t>C4|0.989|0.6</t>
+  </si>
+  <si>
+    <t>C4|0.61</t>
+  </si>
+  <si>
+    <t>D3|0.327|0.5</t>
+  </si>
+  <si>
+    <t>D3|0.65</t>
+  </si>
+  <si>
+    <t>D3|0.606|0.5</t>
+  </si>
+  <si>
+    <t>D3|0.83</t>
+  </si>
+  <si>
+    <t>B1|0|0.3, C1|0.15|0.3, D2|0.334|0.2</t>
+  </si>
+  <si>
+    <t>B1|0, C1|0.5, D2|0.6</t>
+  </si>
+  <si>
+    <t>B1|0, C1|3, D2|4</t>
+  </si>
+  <si>
+    <t>A1|1.0|0.8</t>
+  </si>
+  <si>
+    <t>A1|0.8</t>
+  </si>
+  <si>
+    <t>B2|0|0.3, C1|0|0.3, D2|0.475|0.2</t>
+  </si>
+  <si>
+    <t>B2|0, C1|0, D2|0.42</t>
+  </si>
+  <si>
+    <t>B2|0, C1|0, D2|3</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.3, B3|0|0.3</t>
+  </si>
+  <si>
+    <t>A3|0|0.3, D2|0|0.3</t>
+  </si>
+  <si>
+    <t>A3|0, D2|0</t>
+  </si>
+  <si>
+    <t>C3|0.285|0.4, A3_5|0|0.3</t>
+  </si>
+  <si>
+    <t>C3|0.71, A3_5|0</t>
+  </si>
+  <si>
+    <t>C3|4, A3_5|0</t>
+  </si>
+  <si>
+    <t>A3|0.83|0.8</t>
+  </si>
+  <si>
+    <t>A3|0.96</t>
+  </si>
+  <si>
+    <t>C3|0|0.3, D3|0|0.3, D4|0.282|0.3</t>
+  </si>
+  <si>
+    <t>C3|0, D3|0, D4|0.94</t>
+  </si>
+  <si>
+    <t>C3|0, D3|0, D4|5</t>
+  </si>
+  <si>
+    <t>C3|0|0.2</t>
+  </si>
+  <si>
+    <t>A3_5|0.421|0.8</t>
+  </si>
+  <si>
+    <t>A3_5|0.53</t>
+  </si>
+  <si>
+    <t>A4|0|0.3, C3|0|0.3</t>
+  </si>
+  <si>
+    <t>A4|0, C3|0</t>
+  </si>
+  <si>
+    <t>A4|0.279|0.3, C4|0.546|0.3</t>
+  </si>
+  <si>
+    <t>A4|0.93, C4|0.55</t>
+  </si>
+  <si>
+    <t>A4|5, C4|3</t>
+  </si>
+  <si>
+    <t>B1|0.301|0.3</t>
+  </si>
+  <si>
+    <t>B1|1.0</t>
+  </si>
+  <si>
+    <t>C1|0|0.3, C2|0.361|0.3, D3|0.166|0.3</t>
+  </si>
+  <si>
+    <t>C1|0, C2|0.83, D3|0.55</t>
+  </si>
+  <si>
+    <t>C1|0, C2|5, D3|3</t>
+  </si>
+  <si>
+    <t>B2|0.934|0.9, C1|0|0.5</t>
+  </si>
+  <si>
+    <t>C1|0.291|0.4</t>
+  </si>
+  <si>
+    <t>C1|0.73</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.2, B3|0.167|0.2</t>
+  </si>
+  <si>
+    <t>A3_5|0, B3|0.83</t>
+  </si>
+  <si>
+    <t>A3_5|0, B3|5</t>
+  </si>
+  <si>
+    <t>B4|0|0.2, D3|0|0.2</t>
+  </si>
+  <si>
+    <t>B4|0, D3|0</t>
+  </si>
+  <si>
+    <t>B4|0.643|0.3, A3_5|0|0.3</t>
+  </si>
+  <si>
+    <t>B4|0.47, A3_5|0</t>
+  </si>
+  <si>
+    <t>B4|3, A3_5|0</t>
+  </si>
+  <si>
+    <t>C3|0|0.3, A3_5|0|0.3</t>
+  </si>
+  <si>
+    <t>C3|0, A3_5|0</t>
+  </si>
+  <si>
+    <t>C1|0.3|0.3, C2|0|0.3</t>
+  </si>
+  <si>
+    <t>C1|1.0, C2|0</t>
+  </si>
+  <si>
+    <t>C1|5, C2|0</t>
+  </si>
+  <si>
+    <t>D2|0|0.9</t>
+  </si>
+  <si>
+    <t>D3|0.304|0.3</t>
+  </si>
+  <si>
+    <t>D3|0.99</t>
+  </si>
+  <si>
+    <t>C3|0.324|0.4</t>
+  </si>
+  <si>
+    <t>C3|0.81</t>
+  </si>
+  <si>
+    <t>D4|0|0.3</t>
+  </si>
+  <si>
+    <t>D4|0|0.3, A4|0|0.3</t>
+  </si>
+  <si>
+    <t>D4|0, A4|0</t>
+  </si>
+  <si>
+    <t>C4|0.906|0.3</t>
+  </si>
+  <si>
+    <t>C4|0.33</t>
+  </si>
+  <si>
+    <t>C4|0.989|0.3</t>
+  </si>
+  <si>
+    <t>C4|0.3</t>
+  </si>
+  <si>
+    <t>C3|0.166|0.3</t>
+  </si>
+  <si>
+    <t>C1|0.279|0.9</t>
+  </si>
+  <si>
+    <t>C1|0.31</t>
+  </si>
+  <si>
+    <t>D2|0.44|0.3</t>
+  </si>
+  <si>
+    <t>D2|0.68</t>
+  </si>
+  <si>
+    <t>C2|0|0.3, D3|0.327|0.3</t>
+  </si>
+  <si>
+    <t>C2|0, D3|0.92</t>
+  </si>
+  <si>
+    <t>C2|0, D3|5</t>
+  </si>
+  <si>
+    <t>C2|0.214|0.3</t>
+  </si>
+  <si>
+    <t>C2|0.71</t>
+  </si>
+  <si>
+    <t>C3|0.365|0.5, D4|0.19|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.73, D4|0.38</t>
+  </si>
+  <si>
+    <t>C3|4, D4|2</t>
+  </si>
+  <si>
+    <t>C2|0|0.9</t>
+  </si>
+  <si>
+    <t>C3|0.43|0.2, A3_5|0|0.2</t>
+  </si>
+  <si>
+    <t>C3|0.47, A3_5|0</t>
+  </si>
+  <si>
+    <t>C3|3, A3_5|0</t>
+  </si>
+  <si>
+    <t>D2|0.334|0.2</t>
+  </si>
+  <si>
+    <t>D2|0.6</t>
+  </si>
+  <si>
+    <t>A1|1.0|0.9</t>
+  </si>
+  <si>
+    <t>A1|0.9</t>
+  </si>
+  <si>
+    <t>D2|0.475|0.2</t>
+  </si>
+  <si>
+    <t>D2|0.42</t>
+  </si>
+  <si>
+    <t>C2|0|0.4</t>
+  </si>
+  <si>
+    <t>A2|0.666|0.7</t>
+  </si>
+  <si>
+    <t>A2|0.95</t>
+  </si>
+  <si>
+    <t>D2|0|0.4</t>
+  </si>
+  <si>
+    <t>A4|0|0.5</t>
+  </si>
+  <si>
+    <t>A3_5|0|0.3</t>
+  </si>
+  <si>
+    <t>C4|0.365|0.3</t>
+  </si>
+  <si>
+    <t>C4|0.82</t>
+  </si>
+  <si>
+    <t>B4|0.245|0.7</t>
+  </si>
+  <si>
+    <t>B4|0.35</t>
+  </si>
+  <si>
+    <t>A4|0|0.4</t>
+  </si>
+  <si>
+    <t>A4|0.711|0.6</t>
+  </si>
+  <si>
+    <t>A4|0.84</t>
+  </si>
+  <si>
+    <t>A4|5</t>
+  </si>
+  <si>
+    <t>C4|0.718|0.6</t>
+  </si>
+  <si>
+    <t>C4|0.84</t>
+  </si>
+  <si>
+    <t>D2|0.54|0.4</t>
+  </si>
+  <si>
+    <t>D2|0.74</t>
+  </si>
+  <si>
+    <t>B1|0.504|0.1</t>
+  </si>
+  <si>
+    <t>B1|0.2</t>
+  </si>
+  <si>
+    <t>C2|0.361|0.2</t>
+  </si>
+  <si>
+    <t>C2|0.55</t>
+  </si>
+  <si>
+    <t>D3|0.286|0.3</t>
+  </si>
+  <si>
+    <t>D3|0.95</t>
+  </si>
+  <si>
+    <t>B4|0.378|0.2</t>
+  </si>
+  <si>
+    <t>B4|0.53</t>
+  </si>
+  <si>
+    <t>B3|0.982|0.8</t>
+  </si>
+  <si>
+    <t>B3|0.81</t>
+  </si>
+  <si>
+    <t>B4|0|0.2</t>
+  </si>
+  <si>
+    <t>B4|0.643|0.3</t>
+  </si>
+  <si>
+    <t>B4|0.47</t>
+  </si>
+  <si>
+    <t>A4|0|0.5, C3|0|0.3, C4|0.32|0.3</t>
+  </si>
+  <si>
+    <t>A4|0, C3|0, C4|0.94</t>
+  </si>
+  <si>
+    <t>A4|0, C3|0, C4|5</t>
+  </si>
+  <si>
+    <t>D3|0.429|0.3</t>
+  </si>
+  <si>
+    <t>D3|0.7</t>
+  </si>
+  <si>
+    <t>C2|0|0.3</t>
+  </si>
+  <si>
+    <t>D4|0|0.2</t>
+  </si>
+  <si>
+    <t>C4|0.537|0.5</t>
+  </si>
+  <si>
+    <t>C4|0.93</t>
+  </si>
+  <si>
+    <t>C4|0.906|0.4</t>
+  </si>
+  <si>
+    <t>C4|0.44</t>
+  </si>
+  <si>
+    <t>C4|0.957|0.8</t>
+  </si>
+  <si>
+    <t>C4|0.989|0.2</t>
+  </si>
+  <si>
+    <t>C4|0.2</t>
+  </si>
+  <si>
+    <t>D3|0.251|0.2</t>
+  </si>
+  <si>
+    <t>D3|0.8</t>
+  </si>
+  <si>
+    <t>D2|0.719|0.7</t>
+  </si>
+  <si>
+    <t>D2|0.97</t>
+  </si>
+  <si>
+    <t>C3|0.207|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.41</t>
+  </si>
+  <si>
+    <t>C3|0|0.3</t>
+  </si>
+  <si>
+    <t>C3|0.365|0.3, A4|0|0.3</t>
+  </si>
+  <si>
+    <t>C3|0.82, A4|0</t>
+  </si>
+  <si>
+    <t>C3|5, A4|0</t>
+  </si>
+  <si>
+    <t>C3|0.43|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.86</t>
+  </si>
+  <si>
+    <t>C1|0.15|0.1</t>
+  </si>
+  <si>
+    <t>B1|0|0.4</t>
+  </si>
+  <si>
+    <t>C3|0.219|0.3</t>
+  </si>
+  <si>
+    <t>B4|0.245|0.5</t>
+  </si>
+  <si>
+    <t>B4|0.49</t>
+  </si>
+  <si>
+    <t>C4|0.546|0.7</t>
+  </si>
+  <si>
+    <t>C4|0.78</t>
+  </si>
+  <si>
+    <t>A4|0.711|0.8</t>
+  </si>
+  <si>
+    <t>A4|0.89</t>
+  </si>
+  <si>
+    <t>B1|0.301|0.8</t>
+  </si>
+  <si>
+    <t>B1|0.38</t>
+  </si>
+  <si>
+    <t>B1|0|0.2</t>
+  </si>
+  <si>
+    <t>D3|0|0.1</t>
+  </si>
+  <si>
+    <t>C1|0.967|0.6</t>
+  </si>
+  <si>
+    <t>C1|0.62</t>
+  </si>
+  <si>
+    <t>D2|0.225|0.7</t>
+  </si>
+  <si>
+    <t>D2|0.32</t>
+  </si>
+  <si>
+    <t>C2|0.19|0.8</t>
+  </si>
+  <si>
+    <t>C2|0.24</t>
+  </si>
+  <si>
+    <t>C3|0.135|0.7</t>
+  </si>
+  <si>
+    <t>C3|0.19</t>
+  </si>
+  <si>
+    <t>C3|1</t>
+  </si>
+  <si>
+    <t>C4|0.906|0.2</t>
+  </si>
+  <si>
+    <t>C4|0.22</t>
+  </si>
+  <si>
+    <t>C4|0.957|0.2</t>
+  </si>
+  <si>
+    <t>C4|0.21</t>
+  </si>
+  <si>
+    <t>C4|0.319|0.1</t>
+  </si>
+  <si>
+    <t>C4|0.31</t>
+  </si>
+  <si>
+    <t>D2|0.44|0.1</t>
+  </si>
+  <si>
+    <t>D2|0.23</t>
+  </si>
+  <si>
+    <t>D3|0.327|0.1</t>
+  </si>
+  <si>
+    <t>D3|0.31</t>
+  </si>
+  <si>
+    <t>C2|0.297|0.7</t>
+  </si>
+  <si>
+    <t>C2|0.42</t>
+  </si>
+  <si>
+    <t>D3|0.408|0.1</t>
+  </si>
+  <si>
+    <t>D3|0.25</t>
+  </si>
+  <si>
+    <t>D4|0.19|0.3</t>
+  </si>
+  <si>
+    <t>D4|0.63</t>
+  </si>
+  <si>
+    <t>D2|0.334|0.4</t>
+  </si>
+  <si>
+    <t>D2|0.83</t>
+  </si>
+  <si>
+    <t>B2|0.319|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.285|0.5</t>
+  </si>
+  <si>
+    <t>C3|0.57</t>
+  </si>
+  <si>
+    <t>A3|0.83|0.4</t>
+  </si>
+  <si>
+    <t>A3|0.48</t>
+  </si>
+  <si>
+    <t>A3|3</t>
+  </si>
+  <si>
+    <t>C2|0.282|0.3</t>
+  </si>
+  <si>
+    <t>C2|0.94</t>
+  </si>
+  <si>
+    <t>A4|0|0.3</t>
+  </si>
+  <si>
+    <t>A3_5|0.421|0.4</t>
+  </si>
+  <si>
+    <t>A3_5|0.95</t>
+  </si>
+  <si>
+    <t>A3_5|5</t>
+  </si>
+  <si>
+    <t>A4|0.711|0.7</t>
+  </si>
+  <si>
+    <t>A4|0.98</t>
+  </si>
+  <si>
+    <t>C4|0.718|0.1</t>
+  </si>
+  <si>
+    <t>C4|0.14</t>
+  </si>
+  <si>
+    <t>C4|1</t>
+  </si>
+  <si>
+    <t>C1|0|0.1</t>
+  </si>
+  <si>
+    <t>D2|0|0.6, D2|0|0.5</t>
+  </si>
+  <si>
+    <t>D2|0, D2|0</t>
+  </si>
+  <si>
+    <t>B1|0|0.1</t>
+  </si>
+  <si>
+    <t>B3|0.982|0.6</t>
+  </si>
+  <si>
+    <t>B3|0.61</t>
+  </si>
+  <si>
+    <t>C2|0|0.1</t>
+  </si>
+  <si>
+    <t>C1|0.967|0.5, D2|0|0.5</t>
+  </si>
+  <si>
+    <t>C1|0.52, D2|0</t>
+  </si>
+  <si>
+    <t>C1|3, D2|0</t>
+  </si>
+  <si>
+    <t>D2|0.225|0.1</t>
+  </si>
+  <si>
+    <t>D2|0|0.1</t>
+  </si>
+  <si>
+    <t>C4|0.537|0.2</t>
+  </si>
+  <si>
+    <t>D3|0.251|0.3</t>
+  </si>
+  <si>
+    <t>D3|0.84</t>
+  </si>
+  <si>
+    <t>C3|0.207|0.2</t>
+  </si>
+  <si>
+    <t>C3|0.97</t>
+  </si>
+  <si>
+    <t>C2|0.297|0.5</t>
+  </si>
+  <si>
+    <t>C2|0.59</t>
+  </si>
+  <si>
+    <t>C3|0.365|0.3</t>
+  </si>
+  <si>
+    <t>C3|0.82</t>
+  </si>
+  <si>
+    <t>C3|0.219|0.9</t>
+  </si>
+  <si>
+    <t>C3|0.24</t>
+  </si>
+  <si>
+    <t>C2|0|0.7</t>
+  </si>
+  <si>
+    <t>C2|0.282|0.8</t>
+  </si>
+  <si>
+    <t>C2|0.35</t>
+  </si>
+  <si>
+    <t>A4|0|0.7</t>
+  </si>
+  <si>
+    <t>A4|0|0.6</t>
+  </si>
+  <si>
+    <t>C4|0.718|0.9</t>
+  </si>
+  <si>
+    <t>C4|0.8</t>
+  </si>
+  <si>
+    <t>B1|0.504|0.4</t>
+  </si>
+  <si>
+    <t>B1|0.79</t>
+  </si>
+  <si>
+    <t>C2|0.361|0.9</t>
+  </si>
+  <si>
+    <t>D2|0.225|0.6</t>
+  </si>
+  <si>
+    <t>D2|0.38</t>
+  </si>
+  <si>
+    <t>C2|0.954|0.9</t>
+  </si>
+  <si>
+    <t>C4|0.906|0.8</t>
+  </si>
+  <si>
+    <t>C4|0.88</t>
+  </si>
+  <si>
+    <t>A4|0|0.8</t>
+  </si>
+  <si>
+    <t>D2|0.719|0.9</t>
+  </si>
+  <si>
+    <t>D2|0.8</t>
+  </si>
+  <si>
+    <t>D2|0|0.8</t>
+  </si>
+  <si>
+    <t>D3|0.408|0.6</t>
+  </si>
+  <si>
+    <t>D3|0.68</t>
+  </si>
+  <si>
+    <t>C3|0.365|0.8</t>
+  </si>
+  <si>
+    <t>C3|0.43|0.8</t>
+  </si>
+  <si>
+    <t>C3|0.54</t>
   </si>
 </sst>
 </file>
@@ -1574,14 +3617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2125,6 +4163,3350 @@
       </c>
       <c r="J17" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="H2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F3" t="s">
+        <v>783</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F4" t="s">
+        <v>785</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="H4" t="s">
+        <v>669</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F5" t="s">
+        <v>788</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I5" t="s">
+        <v>635</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" t="s">
+        <v>792</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>639</v>
+      </c>
+      <c r="I6" t="s">
+        <v>640</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>795</v>
+      </c>
+      <c r="I7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>796</v>
+      </c>
+      <c r="F8" t="s">
+        <v>797</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>669</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" t="s">
+        <v>669</v>
+      </c>
+      <c r="I9" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" t="s">
+        <v>800</v>
+      </c>
+      <c r="F10" t="s">
+        <v>801</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H10" t="s">
+        <v>802</v>
+      </c>
+      <c r="I10" t="s">
+        <v>803</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C11" t="s">
+        <v>805</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>710</v>
+      </c>
+      <c r="F11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H11" t="s">
+        <v>663</v>
+      </c>
+      <c r="I11" t="s">
+        <v>664</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>767</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F12" t="s">
+        <v>807</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>718</v>
+      </c>
+      <c r="I12" t="s">
+        <v>719</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>808</v>
+      </c>
+      <c r="F13" t="s">
+        <v>809</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>810</v>
+      </c>
+      <c r="F14" t="s">
+        <v>755</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>811</v>
+      </c>
+      <c r="I14" t="s">
+        <v>812</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>458</v>
+      </c>
+      <c r="I15" t="s">
+        <v>459</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>813</v>
+      </c>
+      <c r="C16" t="s">
+        <v>814</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" t="s">
+        <v>815</v>
+      </c>
+      <c r="F16" t="s">
+        <v>816</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H16" t="s">
+        <v>776</v>
+      </c>
+      <c r="I16" t="s">
+        <v>731</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>683</v>
+      </c>
+      <c r="C17" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" t="s">
+        <v>739</v>
+      </c>
+      <c r="F17" t="s">
+        <v>740</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H17" t="s">
+        <v>742</v>
+      </c>
+      <c r="I17" t="s">
+        <v>743</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I2" t="s">
+        <v>823</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I3" t="s">
+        <v>827</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F4" t="s">
+        <v>832</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>833</v>
+      </c>
+      <c r="I4" t="s">
+        <v>834</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F5" t="s">
+        <v>838</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" t="s">
+        <v>839</v>
+      </c>
+      <c r="I5" t="s">
+        <v>840</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>757</v>
+      </c>
+      <c r="I7" t="s">
+        <v>758</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E8" t="s">
+        <v>849</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>850</v>
+      </c>
+      <c r="I8" t="s">
+        <v>851</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" t="s">
+        <v>853</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="E9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" t="s">
+        <v>855</v>
+      </c>
+      <c r="I9" t="s">
+        <v>856</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>857</v>
+      </c>
+      <c r="C10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>860</v>
+      </c>
+      <c r="I10" t="s">
+        <v>861</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="E11" t="s">
+        <v>865</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>866</v>
+      </c>
+      <c r="I11" t="s">
+        <v>867</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>868</v>
+      </c>
+      <c r="C12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>870</v>
+      </c>
+      <c r="I12" t="s">
+        <v>409</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>871</v>
+      </c>
+      <c r="C13" t="s">
+        <v>872</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F13" t="s">
+        <v>723</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" t="s">
+        <v>870</v>
+      </c>
+      <c r="I13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>873</v>
+      </c>
+      <c r="C14" t="s">
+        <v>874</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>724</v>
+      </c>
+      <c r="F14" t="s">
+        <v>725</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>875</v>
+      </c>
+      <c r="I14" t="s">
+        <v>876</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>877</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>878</v>
+      </c>
+      <c r="F15" t="s">
+        <v>879</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" t="s">
+        <v>880</v>
+      </c>
+      <c r="I15" t="s">
+        <v>881</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>882</v>
+      </c>
+      <c r="C16" t="s">
+        <v>883</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="E16" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" t="s">
+        <v>465</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H16" t="s">
+        <v>885</v>
+      </c>
+      <c r="I16" t="s">
+        <v>886</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C17" t="s">
+        <v>888</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E17" t="s">
+        <v>890</v>
+      </c>
+      <c r="F17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" t="s">
+        <v>891</v>
+      </c>
+      <c r="I17" t="s">
+        <v>892</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C2" t="s">
+        <v>895</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>898</v>
+      </c>
+      <c r="I2" t="s">
+        <v>899</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F3" t="s">
+        <v>902</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" t="s">
+        <v>903</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F4" t="s">
+        <v>832</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>905</v>
+      </c>
+      <c r="I4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C5" t="s">
+        <v>907</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" t="s">
+        <v>908</v>
+      </c>
+      <c r="F5" t="s">
+        <v>909</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H5" t="s">
+        <v>910</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>911</v>
+      </c>
+      <c r="F6" t="s">
+        <v>912</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="H6" t="s">
+        <v>914</v>
+      </c>
+      <c r="I6" t="s">
+        <v>915</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>918</v>
+      </c>
+      <c r="I7" t="s">
+        <v>919</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C8" t="s">
+        <v>921</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>647</v>
+      </c>
+      <c r="F8" t="s">
+        <v>648</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H8" t="s">
+        <v>922</v>
+      </c>
+      <c r="I8" t="s">
+        <v>923</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>924</v>
+      </c>
+      <c r="C9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E9" t="s">
+        <v>926</v>
+      </c>
+      <c r="F9" t="s">
+        <v>927</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H9" t="s">
+        <v>928</v>
+      </c>
+      <c r="I9" t="s">
+        <v>764</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>929</v>
+      </c>
+      <c r="C10" t="s">
+        <v>930</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" t="s">
+        <v>931</v>
+      </c>
+      <c r="I10" t="s">
+        <v>932</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>934</v>
+      </c>
+      <c r="C11" t="s">
+        <v>935</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E11" t="s">
+        <v>661</v>
+      </c>
+      <c r="F11" t="s">
+        <v>662</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>936</v>
+      </c>
+      <c r="I11" t="s">
+        <v>381</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>937</v>
+      </c>
+      <c r="I12" t="s">
+        <v>409</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C13" t="s">
+        <v>939</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>940</v>
+      </c>
+      <c r="C14" t="s">
+        <v>941</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>942</v>
+      </c>
+      <c r="F14" t="s">
+        <v>915</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>943</v>
+      </c>
+      <c r="I14" t="s">
+        <v>944</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>945</v>
+      </c>
+      <c r="C15" t="s">
+        <v>946</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E15" t="s">
+        <v>947</v>
+      </c>
+      <c r="F15" t="s">
+        <v>948</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H15" t="s">
+        <v>773</v>
+      </c>
+      <c r="I15" t="s">
+        <v>774</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>949</v>
+      </c>
+      <c r="C16" t="s">
+        <v>950</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" t="s">
+        <v>734</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H16" t="s">
+        <v>951</v>
+      </c>
+      <c r="I16" t="s">
+        <v>531</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>952</v>
+      </c>
+      <c r="C17" t="s">
+        <v>953</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>955</v>
+      </c>
+      <c r="I17" t="s">
+        <v>956</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" t="s">
+        <v>958</v>
+      </c>
+      <c r="I2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H4" t="s">
+        <v>903</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5" t="s">
+        <v>960</v>
+      </c>
+      <c r="F5" t="s">
+        <v>961</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" t="s">
+        <v>695</v>
+      </c>
+      <c r="I5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C6" t="s">
+        <v>963</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>964</v>
+      </c>
+      <c r="F6" t="s">
+        <v>965</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>968</v>
+      </c>
+      <c r="I8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C9" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H9" t="s">
+        <v>969</v>
+      </c>
+      <c r="I9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>970</v>
+      </c>
+      <c r="F11" t="s">
+        <v>971</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>972</v>
+      </c>
+      <c r="I11" t="s">
+        <v>973</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" t="s">
+        <v>975</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="s">
+        <v>691</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H12" t="s">
+        <v>976</v>
+      </c>
+      <c r="I12" t="s">
+        <v>977</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>709</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F13" t="s">
+        <v>723</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" t="s">
+        <v>564</v>
+      </c>
+      <c r="I13" t="s">
+        <v>481</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>979</v>
+      </c>
+      <c r="C14" t="s">
+        <v>980</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>981</v>
+      </c>
+      <c r="F14" t="s">
+        <v>982</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>983</v>
+      </c>
+      <c r="C15" t="s">
+        <v>984</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>985</v>
+      </c>
+      <c r="I15" t="s">
+        <v>986</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>987</v>
+      </c>
+      <c r="C16" t="s">
+        <v>988</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E16" t="s">
+        <v>989</v>
+      </c>
+      <c r="F16" t="s">
+        <v>990</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>991</v>
+      </c>
+      <c r="I16" t="s">
+        <v>992</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C17" t="s">
+        <v>994</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>951</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H17" t="s">
+        <v>564</v>
+      </c>
+      <c r="I17" t="s">
+        <v>481</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="H2" t="s">
+        <v>968</v>
+      </c>
+      <c r="I2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" t="s">
+        <v>997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H5" t="s">
+        <v>951</v>
+      </c>
+      <c r="I5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>918</v>
+      </c>
+      <c r="I7" t="s">
+        <v>919</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I9" t="s">
+        <v>381</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C10" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I10" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I11" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>808</v>
+      </c>
+      <c r="F13" t="s">
+        <v>809</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I13" t="s">
+        <v>381</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>979</v>
+      </c>
+      <c r="C14" t="s">
+        <v>980</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>942</v>
+      </c>
+      <c r="F14" t="s">
+        <v>915</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>943</v>
+      </c>
+      <c r="I14" t="s">
+        <v>944</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>985</v>
+      </c>
+      <c r="I15" t="s">
+        <v>986</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I16" t="s">
+        <v>481</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" t="s">
+        <v>772</v>
+      </c>
+      <c r="F17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I17" t="s">
+        <v>381</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" t="s">
+        <v>997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>729</v>
+      </c>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>802</v>
+      </c>
+      <c r="I10" t="s">
+        <v>803</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>865</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>976</v>
+      </c>
+      <c r="I12" t="s">
+        <v>977</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" t="s">
+        <v>709</v>
+      </c>
+      <c r="I13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C15" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H15" t="s">
+        <v>880</v>
+      </c>
+      <c r="I15" t="s">
+        <v>881</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>775</v>
+      </c>
+      <c r="C16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2136,17 +7518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="29.6328125" customWidth="1"/>
-    <col min="7" max="7" width="44.1796875" customWidth="1"/>
-    <col min="8" max="8" width="42.81640625" customWidth="1"/>
-    <col min="9" max="9" width="35.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2701,16 +8075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="7" max="7" width="32.1796875" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3259,4 +8626,3346 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" t="s">
+        <v>421</v>
+      </c>
+      <c r="I9" t="s">
+        <v>422</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" t="s">
+        <v>429</v>
+      </c>
+      <c r="I10" t="s">
+        <v>427</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I11" t="s">
+        <v>436</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" t="s">
+        <v>443</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>449</v>
+      </c>
+      <c r="I13" t="s">
+        <v>450</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" t="s">
+        <v>409</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" t="s">
+        <v>409</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F15" t="s">
+        <v>456</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H15" t="s">
+        <v>458</v>
+      </c>
+      <c r="I15" t="s">
+        <v>459</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E16" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" t="s">
+        <v>465</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" t="s">
+        <v>469</v>
+      </c>
+      <c r="F17" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H17" t="s">
+        <v>472</v>
+      </c>
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" t="s">
+        <v>484</v>
+      </c>
+      <c r="I4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I5" t="s">
+        <v>493</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" t="s">
+        <v>499</v>
+      </c>
+      <c r="I8" t="s">
+        <v>500</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I9" t="s">
+        <v>508</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F10" t="s">
+        <v>513</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>514</v>
+      </c>
+      <c r="I10" t="s">
+        <v>515</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>519</v>
+      </c>
+      <c r="I12" t="s">
+        <v>520</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" t="s">
+        <v>325</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" t="s">
+        <v>369</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F16" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H16" t="s">
+        <v>527</v>
+      </c>
+      <c r="I16" t="s">
+        <v>528</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>535</v>
+      </c>
+      <c r="I2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I3" t="s">
+        <v>541</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F4" t="s">
+        <v>546</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>543</v>
+      </c>
+      <c r="I4" t="s">
+        <v>544</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I5" t="s">
+        <v>554</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>558</v>
+      </c>
+      <c r="I6" t="s">
+        <v>559</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I7" t="s">
+        <v>563</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F8" t="s">
+        <v>566</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" t="s">
+        <v>567</v>
+      </c>
+      <c r="I8" t="s">
+        <v>568</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F9" t="s">
+        <v>573</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H9" t="s">
+        <v>575</v>
+      </c>
+      <c r="I9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="H10" t="s">
+        <v>581</v>
+      </c>
+      <c r="I10" t="s">
+        <v>582</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F11" t="s">
+        <v>587</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>588</v>
+      </c>
+      <c r="I11" t="s">
+        <v>589</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C12" t="s">
+        <v>592</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>595</v>
+      </c>
+      <c r="C13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
+        <v>595</v>
+      </c>
+      <c r="I13" t="s">
+        <v>539</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>597</v>
+      </c>
+      <c r="I14" t="s">
+        <v>598</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" t="s">
+        <v>600</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E15" t="s">
+        <v>602</v>
+      </c>
+      <c r="F15" t="s">
+        <v>603</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H15" t="s">
+        <v>605</v>
+      </c>
+      <c r="I15" t="s">
+        <v>481</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F16" t="s">
+        <v>610</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H16" t="s">
+        <v>612</v>
+      </c>
+      <c r="I16" t="s">
+        <v>613</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E17" t="s">
+        <v>617</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H17" t="s">
+        <v>618</v>
+      </c>
+      <c r="I17" t="s">
+        <v>539</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F5" t="s">
+        <v>632</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="H5" t="s">
+        <v>634</v>
+      </c>
+      <c r="I5" t="s">
+        <v>635</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" t="s">
+        <v>639</v>
+      </c>
+      <c r="I6" t="s">
+        <v>640</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>645</v>
+      </c>
+      <c r="I7" t="s">
+        <v>646</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" t="s">
+        <v>647</v>
+      </c>
+      <c r="F8" t="s">
+        <v>648</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C9" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" t="s">
+        <v>651</v>
+      </c>
+      <c r="F9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" t="s">
+        <v>652</v>
+      </c>
+      <c r="I9" t="s">
+        <v>653</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E10" t="s">
+        <v>657</v>
+      </c>
+      <c r="F10" t="s">
+        <v>635</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H10" t="s">
+        <v>658</v>
+      </c>
+      <c r="I10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C11" t="s">
+        <v>660</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>661</v>
+      </c>
+      <c r="F11" t="s">
+        <v>662</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>663</v>
+      </c>
+      <c r="I11" t="s">
+        <v>664</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>666</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>666</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" t="s">
+        <v>669</v>
+      </c>
+      <c r="I13" t="s">
+        <v>293</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>670</v>
+      </c>
+      <c r="F14" t="s">
+        <v>671</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>597</v>
+      </c>
+      <c r="I14" t="s">
+        <v>598</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>674</v>
+      </c>
+      <c r="I15" t="s">
+        <v>675</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>676</v>
+      </c>
+      <c r="C16" t="s">
+        <v>677</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E16" t="s">
+        <v>679</v>
+      </c>
+      <c r="F16" t="s">
+        <v>680</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H16" t="s">
+        <v>682</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>683</v>
+      </c>
+      <c r="C17" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" t="s">
+        <v>669</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" t="s">
+        <v>629</v>
+      </c>
+      <c r="I17" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" t="s">
+        <v>687</v>
+      </c>
+      <c r="I2" t="s">
+        <v>688</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>691</v>
+      </c>
+      <c r="I3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H4" t="s">
+        <v>694</v>
+      </c>
+      <c r="I4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H5" t="s">
+        <v>696</v>
+      </c>
+      <c r="I5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" t="s">
+        <v>699</v>
+      </c>
+      <c r="I6" t="s">
+        <v>700</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C7" t="s">
+        <v>702</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I7" t="s">
+        <v>563</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C8" t="s">
+        <v>704</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>705</v>
+      </c>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H9" t="s">
+        <v>691</v>
+      </c>
+      <c r="I9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>709</v>
+      </c>
+      <c r="I10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>710</v>
+      </c>
+      <c r="F11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H11" t="s">
+        <v>712</v>
+      </c>
+      <c r="I11" t="s">
+        <v>713</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C12" t="s">
+        <v>715</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>716</v>
+      </c>
+      <c r="F12" t="s">
+        <v>717</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" t="s">
+        <v>718</v>
+      </c>
+      <c r="I12" t="s">
+        <v>719</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>720</v>
+      </c>
+      <c r="C13" t="s">
+        <v>721</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F13" t="s">
+        <v>723</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>724</v>
+      </c>
+      <c r="F14" t="s">
+        <v>725</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C15" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E15" t="s">
+        <v>689</v>
+      </c>
+      <c r="F15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" t="s">
+        <v>729</v>
+      </c>
+      <c r="I15" t="s">
+        <v>481</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>730</v>
+      </c>
+      <c r="C16" t="s">
+        <v>731</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E16" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" t="s">
+        <v>734</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H16" t="s">
+        <v>735</v>
+      </c>
+      <c r="I16" t="s">
+        <v>736</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>737</v>
+      </c>
+      <c r="C17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" t="s">
+        <v>739</v>
+      </c>
+      <c r="F17" t="s">
+        <v>740</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H17" t="s">
+        <v>742</v>
+      </c>
+      <c r="I17" t="s">
+        <v>743</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>746</v>
+      </c>
+      <c r="I2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F4" t="s">
+        <v>635</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H4" t="s">
+        <v>752</v>
+      </c>
+      <c r="I4" t="s">
+        <v>635</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" t="s">
+        <v>753</v>
+      </c>
+      <c r="F5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5" t="s">
+        <v>691</v>
+      </c>
+      <c r="I5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>757</v>
+      </c>
+      <c r="I7" t="s">
+        <v>758</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" t="s">
+        <v>630</v>
+      </c>
+      <c r="I8" t="s">
+        <v>531</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" t="s">
+        <v>761</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F10" t="s">
+        <v>513</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>762</v>
+      </c>
+      <c r="I10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C11" t="s">
+        <v>764</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" t="s">
+        <v>765</v>
+      </c>
+      <c r="I11" t="s">
+        <v>764</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>767</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>718</v>
+      </c>
+      <c r="I12" t="s">
+        <v>719</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C13" t="s">
+        <v>769</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>770</v>
+      </c>
+      <c r="F13" t="s">
+        <v>771</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>773</v>
+      </c>
+      <c r="I15" t="s">
+        <v>774</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>775</v>
+      </c>
+      <c r="C16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F16" t="s">
+        <v>610</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H16" t="s">
+        <v>776</v>
+      </c>
+      <c r="I16" t="s">
+        <v>731</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H17" t="s">
+        <v>777</v>
+      </c>
+      <c r="I17" t="s">
+        <v>381</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>